--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value346.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value346.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.581496209553301</v>
+        <v>0.7531644701957703</v>
       </c>
       <c r="B1">
-        <v>4.071829567363278</v>
+        <v>1.412539720535278</v>
       </c>
       <c r="C1">
-        <v>2.125075325588753</v>
+        <v>5.331111431121826</v>
       </c>
       <c r="D1">
-        <v>0.9508394662962764</v>
+        <v>3.176127910614014</v>
       </c>
       <c r="E1">
-        <v>0.6911922158296095</v>
+        <v>1.519210696220398</v>
       </c>
     </row>
   </sheetData>
